--- a/Model Tuning.xlsx
+++ b/Model Tuning.xlsx
@@ -167,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,18 +193,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,12 +276,12 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,43 +900,43 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="n">
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8" t="n">
+      <c r="D16" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="K16" s="9" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="L16" s="9" t="n">
+      <c r="K16" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>0.00367</v>
       </c>
-      <c r="M16" s="9" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.01061</v>
       </c>
     </row>

--- a/Model Tuning.xlsx
+++ b/Model Tuning.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="python" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="pai" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
   <si>
     <t xml:space="preserve">Z-score</t>
   </si>
@@ -52,6 +53,9 @@
     <t xml:space="preserve">zero_equal_na</t>
   </si>
   <si>
+    <t xml:space="preserve">categorical_na</t>
+  </si>
+  <si>
     <t xml:space="preserve">best alpha</t>
   </si>
   <si>
@@ -73,6 +77,9 @@
     <t xml:space="preserve">encoding and drop first</t>
   </si>
   <si>
+    <t xml:space="preserve">DROP</t>
+  </si>
+  <si>
     <t xml:space="preserve">all</t>
   </si>
   <si>
@@ -80,6 +87,15 @@
   </si>
   <si>
     <t xml:space="preserve">drop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1 Penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test MSE</t>
   </si>
 </sst>
 </file>
@@ -273,16 +289,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -324,6 +337,9 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -339,16 +355,16 @@
         <v>0.01</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0</v>
@@ -356,13 +372,16 @@
       <c r="J2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="n">
-        <v>0.002</v>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>0.00404</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>0.01145</v>
       </c>
     </row>
@@ -380,16 +399,16 @@
         <v>0.01</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
@@ -397,13 +416,16 @@
       <c r="J3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="M3" s="1" t="n">
         <v>0.00557</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>0.01147</v>
       </c>
     </row>
@@ -421,16 +443,16 @@
         <v>0.01</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
@@ -438,13 +460,16 @@
       <c r="J4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <v>0.002</v>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L4" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>0.00424</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>0.01122</v>
       </c>
     </row>
@@ -462,16 +487,16 @@
         <v>0.01</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0</v>
@@ -479,13 +504,16 @@
       <c r="J5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>0.002</v>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L5" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>0.004245</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>0.01111</v>
       </c>
     </row>
@@ -503,16 +531,16 @@
         <v>0.01</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0</v>
@@ -520,13 +548,16 @@
       <c r="J6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <v>0.002</v>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L6" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>0.00427</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>0.01098</v>
       </c>
     </row>
@@ -544,16 +575,16 @@
         <v>0.01</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>0</v>
@@ -561,13 +592,16 @@
       <c r="J7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="n">
-        <v>0.002</v>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>0.00427</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>0.01098</v>
       </c>
     </row>
@@ -585,16 +619,16 @@
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>0</v>
@@ -602,13 +636,16 @@
       <c r="J8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>0.002</v>
+      <c r="K8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L8" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M8" s="0" t="n">
         <v>0.00439</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>0.01134</v>
       </c>
     </row>
@@ -626,16 +663,16 @@
         <v>0.01</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>0</v>
@@ -643,13 +680,16 @@
       <c r="J9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>0.002</v>
+      <c r="K9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="L9" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M9" s="4" t="n">
         <v>0.00429</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="N9" s="4" t="n">
         <v>0.01093</v>
       </c>
     </row>
@@ -667,16 +707,16 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>0</v>
@@ -684,13 +724,16 @@
       <c r="J10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>0.002</v>
+      <c r="K10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L10" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>0.0042</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>0.01143</v>
       </c>
     </row>
@@ -705,19 +748,19 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>0</v>
@@ -725,13 +768,16 @@
       <c r="J11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="n">
-        <v>0.002</v>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L11" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M11" s="1" t="n">
         <v>0.00414</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>0.01137</v>
       </c>
     </row>
@@ -749,16 +795,16 @@
         <v>0.01</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>0</v>
@@ -766,13 +812,16 @@
       <c r="J12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="n">
-        <v>0.002</v>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L12" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M12" s="1" t="n">
         <v>0.00626</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="N12" s="1" t="n">
         <v>0.01581</v>
       </c>
     </row>
@@ -790,16 +839,16 @@
         <v>0.01</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>0</v>
@@ -807,13 +856,16 @@
       <c r="J13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="M13" s="1" t="n">
         <v>0.00615</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="N13" s="1" t="n">
         <v>0.01113</v>
       </c>
     </row>
@@ -831,16 +883,16 @@
         <v>0.01</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>0</v>
@@ -848,13 +900,16 @@
       <c r="J14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>0.0066</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>0.01225</v>
       </c>
     </row>
@@ -872,16 +927,16 @@
         <v>0.01</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="5" t="n">
         <v>0</v>
@@ -889,13 +944,16 @@
       <c r="J15" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="K15" s="6" t="n">
-        <v>0.002</v>
+      <c r="K15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="L15" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M15" s="6" t="n">
         <v>0.00403</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="N15" s="6" t="n">
         <v>0.01054</v>
       </c>
     </row>
@@ -913,16 +971,16 @@
         <v>0.01</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>0</v>
@@ -930,14 +988,61 @@
       <c r="J16" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>0.002</v>
+      <c r="K16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L16" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M16" s="0" t="n">
         <v>0.00367</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.01061</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>0.00399</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>0.01042</v>
       </c>
     </row>
   </sheetData>
@@ -949,4 +1054,111 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.01121</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.01103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.01093</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.01108</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.01101</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.01106</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.01139</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.01162</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Model Tuning.xlsx
+++ b/Model Tuning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="python" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t xml:space="preserve">Z-score</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">test_mse</t>
   </si>
   <si>
+    <t xml:space="preserve">final_mse</t>
+  </si>
+  <si>
     <t xml:space="preserve">categorical</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">FILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complex</t>
   </si>
   <si>
     <t xml:space="preserve">L1 Penalty</t>
@@ -289,13 +295,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -340,6 +349,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -355,16 +367,16 @@
         <v>0.01</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0</v>
@@ -373,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>0.002</v>
@@ -399,16 +411,16 @@
         <v>0.01</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
@@ -417,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>0.003</v>
@@ -443,16 +455,16 @@
         <v>0.01</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
@@ -461,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>0.002</v>
@@ -487,16 +499,16 @@
         <v>0.01</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0</v>
@@ -505,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>0.002</v>
@@ -531,16 +543,16 @@
         <v>0.01</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0</v>
@@ -549,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>0.002</v>
@@ -575,16 +587,16 @@
         <v>0.01</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>0</v>
@@ -593,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>0.002</v>
@@ -619,16 +631,16 @@
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>0</v>
@@ -637,15 +649,15 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M8" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>0.00439</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>0.01134</v>
       </c>
     </row>
@@ -663,16 +675,16 @@
         <v>0.01</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>0</v>
@@ -681,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0.002</v>
@@ -692,6 +704,9 @@
       <c r="N9" s="4" t="n">
         <v>0.01093</v>
       </c>
+      <c r="O9" s="1" t="n">
+        <v>0.03653</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -707,16 +722,16 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>0</v>
@@ -725,15 +740,15 @@
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M10" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>0.0042</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>0.01143</v>
       </c>
     </row>
@@ -748,19 +763,19 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>0</v>
@@ -769,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>0.002</v>
@@ -795,16 +810,16 @@
         <v>0.01</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>0</v>
@@ -813,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>0.002</v>
@@ -839,16 +854,16 @@
         <v>0.01</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>0</v>
@@ -857,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>0.003</v>
@@ -883,16 +898,16 @@
         <v>0.01</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>0</v>
@@ -901,15 +916,15 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="1" t="n">
         <v>0.0066</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="1" t="n">
         <v>0.01225</v>
       </c>
     </row>
@@ -927,16 +942,16 @@
         <v>0.01</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15" s="5" t="n">
         <v>0</v>
@@ -945,7 +960,7 @@
         <v>0.2</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6" t="n">
         <v>0.002</v>
@@ -955,6 +970,9 @@
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01054</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0.02142</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,16 +989,16 @@
         <v>0.01</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>0</v>
@@ -989,16 +1007,19 @@
         <v>0.2</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M16" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M16" s="1" t="n">
         <v>0.00367</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="1" t="n">
         <v>0.01061</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0.02259</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,16 +1036,16 @@
         <v>0.01</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
@@ -1033,7 +1054,7 @@
         <v>0.2</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L17" s="6" t="n">
         <v>0.002</v>
@@ -1043,6 +1064,188 @@
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01042</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0.0218</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0.00395</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0.01022</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0.01012</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0.01006</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>0.00399</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>0.01001</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.02148</v>
       </c>
     </row>
   </sheetData>
@@ -1063,92 +1266,92 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>24</v>
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0.01121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2.25</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.01103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2.375</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>0.01093</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2.625</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.01108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.01101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.01106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.01139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.01162</v>
       </c>
     </row>

--- a/Model Tuning.xlsx
+++ b/Model Tuning.xlsx
@@ -298,12 +298,12 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,46 +976,46 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="n">
+      <c r="D16" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M16" s="1" t="n">
+      <c r="K16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M16" s="4" t="n">
         <v>0.00367</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="N16" s="4" t="n">
         <v>0.01061</v>
       </c>
       <c r="O16" s="1" t="n">
@@ -1272,7 +1272,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
